--- a/data/OR.xlsx
+++ b/data/OR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital\SI_trabajos\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E74CBD8-AF5A-4D46-96D7-B15B1843CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DE045D-101B-4E15-93D4-24730D27F2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C63CC44C-E40A-4EC6-BE2B-8AD80CAEDDF2}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{C63CC44C-E40A-4EC6-BE2B-8AD80CAEDDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,8 +51,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC66EAF-2FD2-4749-88D0-68CD904B8A58}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,8 +490,11 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/OR.xlsx
+++ b/data/OR.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\S_I\SI_2023_2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juang\Documents\Universidad\EIA S10-2023\Sistemas Inteligentes\SI_2023_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7837C73-AAE2-4DE1-8EEF-F86324FC6E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A279590-F516-47FD-8CCE-08F659037A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{788D5F4D-1083-412D-9E4B-B4BE7EDBB1AD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{25FFAB56-F878-4C8A-BD6F-ED0C2B4B6386}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>x1</t>
+    <t>X1</t>
   </si>
   <si>
-    <t>x2</t>
+    <t>X2</t>
   </si>
   <si>
-    <t>yd</t>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -60,15 +60,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,12 +82,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -395,67 +422,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEF25D9-ECA5-4450-A7BF-FE789E7C8A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB61518-9607-43D2-8F71-7E0A9DAAA082}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
